--- a/output_data/charts/capacity-FranklinTownshipFranklin-0700000US390492828099999.xlsx
+++ b/output_data/charts/capacity-FranklinTownshipFranklin-0700000US390492828099999.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -513,7 +513,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4800</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -847,7 +847,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2400</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -868,10 +868,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23200</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11400</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -883,25 +883,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26200</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23800</c:v>
+                  <c:v>23.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27500</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56755</c:v>
+                  <c:v>56.755</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68530</c:v>
+                  <c:v>68.53</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27760</c:v>
+                  <c:v>27.76</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25630</c:v>
+                  <c:v>25.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>23200</v>
+        <v>23.2</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>11400</v>
+        <v>11.4</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>26200</v>
+        <v>26.2</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>23800</v>
+        <v>23.8</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>27500</v>
+        <v>27.5</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>56755</v>
+        <v>56.755</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>4800</v>
+        <v>4.8</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>68530</v>
+        <v>68.53</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>27760</v>
+        <v>27.76</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>25630</v>
+        <v>25.63</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-FranklinTownshipFranklin-0700000US390492828099999.xlsx
+++ b/output_data/charts/capacity-FranklinTownshipFranklin-0700000US390492828099999.xlsx
@@ -901,7 +901,7 @@
                   <c:v>27.76</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.63</c:v>
+                  <c:v>48.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>25.63</v>
+        <v>48.94</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
